--- a/participantWorkbook.xlsx
+++ b/participantWorkbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
@@ -26,73 +26,67 @@
     <t>Salı</t>
   </si>
   <si>
-    <t>4 Emrullah</t>
-  </si>
-  <si>
-    <t>24/10/2023</t>
+    <t>5 Tuba</t>
+  </si>
+  <si>
+    <t>14/11/2023</t>
   </si>
   <si>
     <t>Çarşamba</t>
   </si>
   <si>
-    <t>18 Kübra</t>
-  </si>
-  <si>
-    <t>25/10/2023</t>
+    <t>8 Cahit</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
   </si>
   <si>
     <t>Perşembe</t>
   </si>
   <si>
-    <t>3 Eda</t>
-  </si>
-  <si>
-    <t>26/10/2023</t>
+    <t>1 Emrullah</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
   </si>
   <si>
     <t>Cuma</t>
   </si>
   <si>
-    <t>6 Cahit</t>
-  </si>
-  <si>
-    <t>27/10/2023</t>
+    <t>6 Nurullah</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
   </si>
   <si>
     <t>Cumartesi</t>
   </si>
   <si>
-    <t>8 Ertugrul</t>
-  </si>
-  <si>
-    <t>28/10/2023</t>
+    <t>2 Eda</t>
+  </si>
+  <si>
+    <t>18/11/2023</t>
   </si>
   <si>
     <t>Pazartesi</t>
   </si>
   <si>
-    <t>10 Ümmü</t>
-  </si>
-  <si>
-    <t>30/10/2023</t>
-  </si>
-  <si>
-    <t>7 Nurullah</t>
-  </si>
-  <si>
-    <t>31/10/2023</t>
-  </si>
-  <si>
-    <t>29 Ahmet</t>
-  </si>
-  <si>
-    <t>01/11/2023</t>
-  </si>
-  <si>
-    <t>17 Sinan</t>
-  </si>
-  <si>
-    <t>02/11/2023</t>
+    <t>7 Mehmet</t>
+  </si>
+  <si>
+    <t>20/11/2023</t>
+  </si>
+  <si>
+    <t>3 Sinan</t>
+  </si>
+  <si>
+    <t>21/11/2023</t>
+  </si>
+  <si>
+    <t>4 Şule</t>
+  </si>
+  <si>
+    <t>22/11/2023</t>
   </si>
 </sst>
 </file>
@@ -137,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -242,17 +236,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
